--- a/hardware/pcb/Board_1_Eagle/Bestellung 28_03_2018/Bestellung.xlsx
+++ b/hardware/pcb/Board_1_Eagle/Bestellung 28_03_2018/Bestellung.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Bestellliste" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Bestellliste!$B$2:$H$17</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Bestellliste!$B$2:$H$23</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="57">
   <si>
     <t>Device</t>
   </si>
@@ -49,9 +49,6 @@
     <t>8p</t>
   </si>
   <si>
-    <t>ACM_52832_VER2</t>
-  </si>
-  <si>
     <t>BAS40-05</t>
   </si>
   <si>
@@ -145,9 +142,6 @@
     <t>10Pin</t>
   </si>
   <si>
-    <t xml:space="preserve">364-ACN52832 </t>
-  </si>
-  <si>
     <t>511-TS4871ID</t>
   </si>
   <si>
@@ -176,6 +170,24 @@
   </si>
   <si>
     <t>Preis pro Stück CHF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">359-ISP1507-AX-RS </t>
+  </si>
+  <si>
+    <t>Mod</t>
+  </si>
+  <si>
+    <t>621-PAM8302AASCR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">710-629105136821 </t>
+  </si>
+  <si>
+    <t>710-693071010811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">485-1674 </t>
   </si>
 </sst>
 </file>
@@ -1274,10 +1286,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H18"/>
+  <dimension ref="B1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.55000000000000004"/>
@@ -1296,16 +1308,16 @@
     <row r="1" spans="2:8" ht="14.55" thickBot="1" x14ac:dyDescent="0.6"/>
     <row r="2" spans="2:8" ht="14.55" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B2" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="9" t="s">
         <v>49</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>51</v>
       </c>
       <c r="F2" s="9" t="s">
         <v>0</v>
@@ -1314,25 +1326,25 @@
         <v>1</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="11">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D3" s="6">
         <v>1</v>
       </c>
       <c r="E3" s="6">
         <f>B3*D3</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>4</v>
@@ -1343,20 +1355,20 @@
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="13">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D4" s="1">
         <v>0.24</v>
       </c>
       <c r="E4" s="1">
-        <f t="shared" ref="E4:E17" si="0">B4*D4</f>
-        <v>1.2</v>
+        <f t="shared" ref="E4:E22" si="0">B4*D4</f>
+        <v>0.48</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>4</v>
@@ -1367,20 +1379,20 @@
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D5" s="1">
         <v>1.17</v>
       </c>
       <c r="E5" s="1">
         <f t="shared" si="0"/>
-        <v>3.51</v>
+        <v>1.17</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>6</v>
@@ -1391,20 +1403,20 @@
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="13">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D6" s="1">
         <v>1.1399999999999999</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" si="0"/>
-        <v>17.099999999999998</v>
+        <v>6.84</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>4</v>
@@ -1415,20 +1427,20 @@
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="13">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D7" s="1">
         <v>0.42</v>
       </c>
       <c r="E7" s="1">
         <f t="shared" si="0"/>
-        <v>3.78</v>
+        <v>0.42</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>4</v>
@@ -1439,246 +1451,328 @@
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D8" s="1">
         <v>0.33600000000000002</v>
       </c>
       <c r="E8" s="1">
         <f t="shared" si="0"/>
-        <v>1.008</v>
+        <v>0.33600000000000002</v>
       </c>
       <c r="F8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="H8" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D9" s="1">
         <v>2.6</v>
       </c>
       <c r="E9" s="1">
         <f t="shared" si="0"/>
-        <v>7.8000000000000007</v>
+        <v>2.6</v>
       </c>
       <c r="F9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="H9" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D10" s="1">
         <v>0.64</v>
       </c>
       <c r="E10" s="1">
         <f t="shared" si="0"/>
-        <v>1.92</v>
+        <v>0.64</v>
       </c>
       <c r="F10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G10" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="H10" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D11" s="1">
         <v>2.69</v>
       </c>
       <c r="E11" s="1">
         <f t="shared" si="0"/>
-        <v>8.07</v>
+        <v>2.69</v>
       </c>
       <c r="F11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H11" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D12" s="1">
         <v>0.58399999999999996</v>
       </c>
       <c r="E12" s="1">
         <f t="shared" si="0"/>
-        <v>1.7519999999999998</v>
+        <v>0.58399999999999996</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D13" s="1">
         <v>0.69</v>
       </c>
       <c r="E13" s="1">
         <f t="shared" si="0"/>
-        <v>2.0699999999999998</v>
+        <v>0.69</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H13" s="3"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="D14" s="1">
-        <v>11.27</v>
+        <v>13.54</v>
       </c>
       <c r="E14" s="1">
         <f t="shared" si="0"/>
-        <v>22.54</v>
+        <v>13.54</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="3"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="13">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="D15" s="1">
-        <v>0.6</v>
+        <v>0.59</v>
       </c>
       <c r="E15" s="1">
         <f t="shared" si="0"/>
-        <v>4.2</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>2</v>
-      </c>
+        <v>0.59</v>
+      </c>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
       <c r="H15" s="3"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="D16" s="1">
-        <v>0.82</v>
+        <v>1.31</v>
       </c>
       <c r="E16" s="1">
         <f t="shared" si="0"/>
-        <v>2.46</v>
-      </c>
-      <c r="F16" s="1" t="s">
+        <v>1.31</v>
+      </c>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="3"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B17" s="13">
+        <v>1</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" s="1">
+        <v>3.13</v>
+      </c>
+      <c r="E17" s="1">
+        <f t="shared" si="0"/>
+        <v>3.13</v>
+      </c>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="3"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B18" s="13">
+        <v>1</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" s="1">
+        <v>8.65</v>
+      </c>
+      <c r="E18" s="1">
+        <f t="shared" si="0"/>
+        <v>8.65</v>
+      </c>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="3"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B19" s="13"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="3"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B20" s="13">
+        <v>3</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="E20" s="1">
+        <f t="shared" si="0"/>
+        <v>1.7999999999999998</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H20" s="3"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B21" s="13">
+        <v>1</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0.82</v>
+      </c>
+      <c r="E21" s="1">
+        <f t="shared" si="0"/>
+        <v>0.82</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G21" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G16" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" ht="14.55" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B17" s="15">
-        <v>3</v>
-      </c>
-      <c r="C17" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="D17" s="4">
+      <c r="H21" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" ht="14.55" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B22" s="15">
+        <v>1</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="D22" s="4">
         <v>0.63</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E22" s="4">
         <f t="shared" si="0"/>
-        <v>1.8900000000000001</v>
-      </c>
-      <c r="F17" s="4" t="s">
+        <v>0.63</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G17" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" ht="14.55" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="D18" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="E18" s="17">
-        <f>SUM(E3:E17)</f>
-        <v>84.3</v>
+      <c r="H22" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" ht="14.55" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="D23" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="E23" s="17">
+        <f>SUM(E3:E22)</f>
+        <v>48.920000000000009</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="B2:H23"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
